--- a/data/trans_dic/P16A19_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A19_2023-Edad-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 4,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,36</t>
+          <t>0,0; 3,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,4</t>
+          <t>0,26; 2,34</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,43</t>
+          <t>0,61; 4,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,35</t>
+          <t>0,22; 2,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,48</t>
+          <t>0,64; 2,65</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,98</t>
+          <t>0,16; 1,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,39</t>
+          <t>0,72; 2,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,82</t>
+          <t>0,53; 1,68</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,54</t>
+          <t>0,7; 2,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,58</t>
+          <t>0,45; 1,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,8</t>
+          <t>0,71; 1,82</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,1</t>
+          <t>0,48; 2,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,38</t>
+          <t>1,41; 3,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,37</t>
+          <t>1,13; 2,4</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,45</t>
+          <t>0,39; 1,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,58</t>
+          <t>1,09; 2,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,93</t>
+          <t>0,97; 1,88</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,52</t>
+          <t>0,75; 1,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,81</t>
+          <t>1,12; 1,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,55</t>
+          <t>1,03; 1,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A19_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A19_2023-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A19_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A19_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,27</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,28</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,34</t>
+          <t>0,26; 2,4</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,12</t>
+          <t>0,62; 4,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,16</t>
+          <t>0,25; 2,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,65</t>
+          <t>0,61; 2,48</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,93</t>
+          <t>0,16; 1,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,41</t>
+          <t>0,65; 2,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,68</t>
+          <t>0,59; 1,82</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,68</t>
+          <t>0,65; 2,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,59</t>
+          <t>0,42; 1,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,82</t>
+          <t>0,72; 1,8</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,07</t>
+          <t>0,44; 2,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,37</t>
+          <t>1,5; 3,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,4</t>
+          <t>1,17; 2,37</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,49</t>
+          <t>0,38; 1,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,57</t>
+          <t>1,13; 2,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,88</t>
+          <t>0,96; 1,93</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,56</t>
+          <t>0,72; 1,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,8</t>
+          <t>1,12; 1,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,57</t>
+          <t>1,02; 1,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A19_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A19_2023-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 3,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,36</t>
+          <t>0,0; 3,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,4</t>
+          <t>0,24; 2,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,43</t>
+          <t>0,75; 5,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,35</t>
+          <t>0,25; 2,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,48</t>
+          <t>0,59; 2,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,01%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,98</t>
+          <t>0,17; 2,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,39</t>
+          <t>0,64; 2,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,82</t>
+          <t>0,58; 1,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,99%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,54</t>
+          <t>0,29; 2,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,58</t>
+          <t>0,41; 1,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,8</t>
+          <t>0,53; 1,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,1</t>
+          <t>0,44; 2,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,37</t>
+          <t>1,15; 2,33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>0; 3,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>0; 5,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>0; 3,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,45</t>
+          <t>0,29; 1,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>0; 5,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>0; 7,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,58</t>
+          <t>0,25; 2,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,36</t>
+          <t>0; 1,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>0; 3,14</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0; 2,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,93</t>
+          <t>0,45; 1,6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 7,93</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 11,83</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 6,81</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 2,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 9,49</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 17,08</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0; 11,83</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 3,62</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 4,44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 7,32</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0; 4,44</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 2,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,1</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0; 0,12</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0; 0,12</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 1,52</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 1,52</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0; 0,14</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0; 0,19</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0; 0,16</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 1,81</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 1,73</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0; 0,07</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0; 0,07</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 1,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A19_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A19_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,57</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,41</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,4</t>
+          <t>0,25; 2,58</t>
         </is>
       </c>
     </row>
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,04</t>
+          <t>0,7; 4,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,32</t>
+          <t>0,22; 2,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,62</t>
+          <t>0,63; 2,66</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 2,06</t>
+          <t>0,16; 2,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,36</t>
+          <t>0,69; 2,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,81</t>
+          <t>0,58; 1,63</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1160,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,15</t>
+          <t>0,35; 2,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1180,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,53</t>
+          <t>0,45; 1,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,59</t>
+          <t>0,51; 1,58</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1300,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,05</t>
+          <t>0,45; 2,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1320,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,38</t>
+          <t>1,49; 3,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,33</t>
+          <t>1,12; 2,32</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1440,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,74</t>
+          <t>0,28; 1,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,03</t>
+          <t>0,34; 2,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,6</t>
+          <t>0,44; 1,63</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1580,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,18</t>
+          <t>0,22; 2,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1600,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,62</t>
+          <t>1,42; 3,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,66</t>
+          <t>1,08; 2,59</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1720,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,52</t>
+          <t>0,66; 1,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1740,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,73</t>
+          <t>1,01; 1,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,5</t>
+          <t>0,96; 1,48</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2756</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3283</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6040</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1900</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2025</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11204</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1836</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1920</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11432</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1875</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1928</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1962</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1800; 18422</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8518</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4133</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12651</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1976</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2984; 19775</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1852</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1112; 10794</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2024</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1988</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5866; 24915</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10915</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2020</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1986</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1996</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>875; 10990</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2054</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1884</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3734; 12761</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2016</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1950</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6209; 17604</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9762</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6066</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15828</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2158</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2113</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3124; 19285</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2225</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3186; 11093</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2039</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2188</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2088</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8214; 25334</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5813</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12350</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18162</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1860</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2073</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2155</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2523; 11280</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1930</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2174</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2211</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8102; 18689</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1905</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2130</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2187</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12376; 25644</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6721</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9609</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1856</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1930</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1024; 6244</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1732</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2058; 13688</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4332; 15920</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2312</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>9818</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>12130</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1769</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1932</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1567</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>629; 5902</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2117</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2076</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2277</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6035; 15644</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2086</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1879</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>7630; 18309</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>35657</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>49678</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>85335</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2032</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>22942; 51706</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>36827; 63138</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1982</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>68421; 105155</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>